--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2364093333333333</v>
+        <v>39.09670133333334</v>
       </c>
       <c r="H2">
-        <v>0.709228</v>
+        <v>117.290104</v>
       </c>
       <c r="I2">
-        <v>0.005805733041453686</v>
+        <v>0.9758026125363394</v>
       </c>
       <c r="J2">
-        <v>0.005805733041453687</v>
+        <v>0.9758026125363395</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N2">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q2">
-        <v>8.160973907551112</v>
+        <v>720.7992836935263</v>
       </c>
       <c r="R2">
-        <v>73.44876516796</v>
+        <v>6487.193553241737</v>
       </c>
       <c r="S2">
-        <v>0.004461319565121473</v>
+        <v>0.5888680387674408</v>
       </c>
       <c r="T2">
-        <v>0.004461319565121474</v>
+        <v>0.5888680387674408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2364093333333333</v>
+        <v>39.09670133333334</v>
       </c>
       <c r="H3">
-        <v>0.709228</v>
+        <v>117.290104</v>
       </c>
       <c r="I3">
-        <v>0.005805733041453686</v>
+        <v>0.9758026125363394</v>
       </c>
       <c r="J3">
-        <v>0.005805733041453687</v>
+        <v>0.9758026125363395</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.042855</v>
       </c>
       <c r="O3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q3">
-        <v>1.264226885104444</v>
+        <v>209.0742368229911</v>
       </c>
       <c r="R3">
-        <v>11.37804196594</v>
+        <v>1881.66813140692</v>
       </c>
       <c r="S3">
-        <v>0.0006911087084900977</v>
+        <v>0.1708064069707121</v>
       </c>
       <c r="T3">
-        <v>0.0006911087084900978</v>
+        <v>0.1708064069707121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2364093333333333</v>
+        <v>39.09670133333334</v>
       </c>
       <c r="H4">
-        <v>0.709228</v>
+        <v>117.290104</v>
       </c>
       <c r="I4">
-        <v>0.005805733041453686</v>
+        <v>0.9758026125363394</v>
       </c>
       <c r="J4">
-        <v>0.005805733041453687</v>
+        <v>0.9758026125363395</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N4">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q4">
-        <v>1.195073136145778</v>
+        <v>264.5499798905734</v>
       </c>
       <c r="R4">
-        <v>10.755658225312</v>
+        <v>2380.94981901516</v>
       </c>
       <c r="S4">
-        <v>0.0006533047678421149</v>
+        <v>0.2161281667981865</v>
       </c>
       <c r="T4">
-        <v>0.000653304767842115</v>
+        <v>0.2161281667981865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.09670133333334</v>
+        <v>0.9694973333333333</v>
       </c>
       <c r="H5">
-        <v>117.290104</v>
+        <v>2.908492</v>
       </c>
       <c r="I5">
-        <v>0.9601355730855794</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="J5">
-        <v>0.9601355730855795</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N5">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q5">
-        <v>1349.638590633698</v>
+        <v>17.87396275331422</v>
       </c>
       <c r="R5">
-        <v>12146.74731570328</v>
+        <v>160.865664779828</v>
       </c>
       <c r="S5">
-        <v>0.7378003064886502</v>
+        <v>0.01460240822883737</v>
       </c>
       <c r="T5">
-        <v>0.7378003064886504</v>
+        <v>0.01460240822883737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.09670133333334</v>
+        <v>0.9694973333333333</v>
       </c>
       <c r="H6">
-        <v>117.290104</v>
+        <v>2.908492</v>
       </c>
       <c r="I6">
-        <v>0.9601355730855794</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="J6">
-        <v>0.9601355730855795</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.042855</v>
       </c>
       <c r="O6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q6">
-        <v>209.0742368229911</v>
+        <v>5.184501713851111</v>
       </c>
       <c r="R6">
-        <v>1881.66813140692</v>
+        <v>46.66051542466</v>
       </c>
       <c r="S6">
-        <v>0.1142935872443125</v>
+        <v>0.004235558254966339</v>
       </c>
       <c r="T6">
-        <v>0.1142935872443125</v>
+        <v>0.004235558254966338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.09670133333334</v>
+        <v>0.9694973333333333</v>
       </c>
       <c r="H7">
-        <v>117.290104</v>
+        <v>2.908492</v>
       </c>
       <c r="I7">
-        <v>0.9601355730855794</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="J7">
-        <v>0.9601355730855795</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N7">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q7">
-        <v>197.6377870390685</v>
+        <v>6.560157028353333</v>
       </c>
       <c r="R7">
-        <v>1778.740083351616</v>
+        <v>59.04141325518</v>
       </c>
       <c r="S7">
-        <v>0.1080416793526165</v>
+        <v>0.005359420979856844</v>
       </c>
       <c r="T7">
-        <v>0.1080416793526166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.386869333333333</v>
-      </c>
-      <c r="H8">
-        <v>4.160608</v>
-      </c>
-      <c r="I8">
-        <v>0.03405869387296686</v>
-      </c>
-      <c r="J8">
-        <v>0.03405869387296687</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>34.52052333333334</v>
-      </c>
-      <c r="N8">
-        <v>103.56157</v>
-      </c>
-      <c r="O8">
-        <v>0.7684334662422597</v>
-      </c>
-      <c r="P8">
-        <v>0.7684334662422597</v>
-      </c>
-      <c r="Q8">
-        <v>47.87545518161778</v>
-      </c>
-      <c r="R8">
-        <v>430.87909663456</v>
-      </c>
-      <c r="S8">
-        <v>0.02617184018848794</v>
-      </c>
-      <c r="T8">
-        <v>0.02617184018848794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.386869333333333</v>
-      </c>
-      <c r="H9">
-        <v>4.160608</v>
-      </c>
-      <c r="I9">
-        <v>0.03405869387296686</v>
-      </c>
-      <c r="J9">
-        <v>0.03405869387296687</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.347618333333333</v>
-      </c>
-      <c r="N9">
-        <v>16.042855</v>
-      </c>
-      <c r="O9">
-        <v>0.1190390091234805</v>
-      </c>
-      <c r="P9">
-        <v>0.1190390091234805</v>
-      </c>
-      <c r="Q9">
-        <v>7.41644787287111</v>
-      </c>
-      <c r="R9">
-        <v>66.74803085584</v>
-      </c>
-      <c r="S9">
-        <v>0.004054313170677932</v>
-      </c>
-      <c r="T9">
-        <v>0.004054313170677933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.386869333333333</v>
-      </c>
-      <c r="H10">
-        <v>4.160608</v>
-      </c>
-      <c r="I10">
-        <v>0.03405869387296686</v>
-      </c>
-      <c r="J10">
-        <v>0.03405869387296687</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.055101333333334</v>
-      </c>
-      <c r="N10">
-        <v>15.165304</v>
-      </c>
-      <c r="O10">
-        <v>0.1125275246342597</v>
-      </c>
-      <c r="P10">
-        <v>0.1125275246342597</v>
-      </c>
-      <c r="Q10">
-        <v>7.010765016092445</v>
-      </c>
-      <c r="R10">
-        <v>63.096885144832</v>
-      </c>
-      <c r="S10">
-        <v>0.003832540513800987</v>
-      </c>
-      <c r="T10">
-        <v>0.003832540513800988</v>
+        <v>0.005359420979856843</v>
       </c>
     </row>
   </sheetData>
